--- a/Arbeitszeit und Projektablaufplan/Wöhrer Reinhard.xlsx
+++ b/Arbeitszeit und Projektablaufplan/Wöhrer Reinhard.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reinhard\Documents\ITP\Semester 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reinhard\Documents\GitHub\Online-Cloud\Arbeitszeit und Projektablaufplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E3B4E9-392D-4B64-9E8A-2D4DB2DBB509}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9EE54D-8213-42EA-B85E-905C5760E2B8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="7755" xr2:uid="{D314E406-1CA6-441B-A69E-4E2BA07AF477}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>Aufgabe</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>Git Hub Eingerichtet</t>
+  </si>
+  <si>
+    <t>HTML Grundgerüst angelegt</t>
+  </si>
+  <si>
+    <t>Xampp Installiert</t>
   </si>
 </sst>
 </file>
@@ -183,11 +189,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -195,6 +198,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -514,14 +523,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45871A62-514C-4E2F-8B7A-802E6EA37B1C}">
   <dimension ref="B2:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="69.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -531,10 +541,10 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="5"/>
       <c r="D3" t="s">
         <v>31</v>
       </c>
@@ -549,10 +559,10 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D4">
@@ -561,7 +571,7 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>43179</v>
       </c>
       <c r="G4" t="s">
@@ -569,8 +579,8 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D5">
@@ -579,7 +589,7 @@
       <c r="E5">
         <v>0.25</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>43179</v>
       </c>
       <c r="G5" t="s">
@@ -587,10 +597,10 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6">
@@ -599,7 +609,7 @@
       <c r="E6">
         <v>2</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>43186</v>
       </c>
       <c r="G6" t="s">
@@ -607,38 +617,50 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>43201</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D11">
@@ -647,7 +669,7 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>43186</v>
       </c>
       <c r="G11" t="s">
@@ -655,87 +677,168 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="3">
+        <v>43208</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="3">
+        <v>43208</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>43208</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="3">
+        <v>43208</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="3">
+        <v>43208</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>43208</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>43208</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="6">
         <v>2</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>43181</v>
       </c>
       <c r="G23" t="s">
@@ -743,13 +846,13 @@
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
       <c r="E24">
         <v>0.5</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>43186</v>
       </c>
       <c r="G24" t="s">
@@ -757,14 +860,23 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="3">
+        <v>43195</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="1" t="s">
         <v>29</v>
       </c>
     </row>
